--- a/biology/Botanique/Paulownia_tomentosa/Paulownia_tomentosa.xlsx
+++ b/biology/Botanique/Paulownia_tomentosa/Paulownia_tomentosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paulownia
-Le Paulownia (Paulownia tomentosa (Thunb.) Steud. = Paulownia imperialis Siebold &amp; Zucc. ) est une espèce d'arbres de la famille des Paulowniaceae, originaire d'Asie, utilisé tant comme arbre d'ornement que comme bois d’œuvre. Envahissant[1], il présente un intérêt sylvicole dans la perspective du réchauffement climatique[2].
-Le nom générique fut donné par Philipp Franz von Siebold en l'honneur d'Anna Pavlowna, alors reine des Pays-Bas. L'épithète spécifique tomentosa signifie « feutré »[3], par allusion au feuillage dont le revers est très laineux.
+Le Paulownia (Paulownia tomentosa (Thunb.) Steud. = Paulownia imperialis Siebold &amp; Zucc. ) est une espèce d'arbres de la famille des Paulowniaceae, originaire d'Asie, utilisé tant comme arbre d'ornement que comme bois d’œuvre. Envahissant, il présente un intérêt sylvicole dans la perspective du réchauffement climatique.
+Le nom générique fut donné par Philipp Franz von Siebold en l'honneur d'Anna Pavlowna, alors reine des Pays-Bas. L'épithète spécifique tomentosa signifie « feutré », par allusion au feuillage dont le revers est très laineux.
 </t>
         </is>
       </c>
@@ -513,14 +525,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paulownia tomentosa est une espèce monoïque caduque à port étalé qui peut mesurer jusqu'à 20 m de haut.
 Ses rameaux pubescents et ses grandes feuilles opposées de 20 à 30 cm cordiformes ont un dessous tomenteux (soyeux) qui lui a donné l'appellation tomentosa et de longs pétioles.
 Les fleurs violettes mellifères ont une odeur de violette et ressemblent à celles du Catalpa ou de la digitale mais elles sont en panicules apparaissant avant les feuilles.
 Les fruits sont des capsules solides ovales et pointues persistantes en hiver mesurant jusqu'à 5 cm de long.
-Confusion possible
-Une autre espèce ornementale souvent plantée dans les parcs et jardins, le Catalpa (Catalpa bignonioides), lui ressemble beaucoup mais appartient à une autre famille : les Bignoniacées. Le Paulownia se distingue notamment par les fleurs violettes, les feuilles opposées (plutôt que verticillées par 2-3) et pubescentes sur les deux faces (plutôt que glabre sur le dessus), et les fruits en capsules ovoïdes de 4 cm de long.
 </t>
         </is>
       </c>
@@ -546,13 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'arbre est originaire du nord de la Chine et de la Corée.
-Il a été introduit en Europe, en 1834, via le Japon. Il y en a près de 900 plantés dans Paris (voir carte).
+          <t>Confusion possible</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une autre espèce ornementale souvent plantée dans les parcs et jardins, le Catalpa (Catalpa bignonioides), lui ressemble beaucoup mais appartient à une autre famille : les Bignoniacées. Le Paulownia se distingue notamment par les fleurs violettes, les feuilles opposées (plutôt que verticillées par 2-3) et pubescentes sur les deux faces (plutôt que glabre sur le dessus), et les fruits en capsules ovoïdes de 4 cm de long.
 </t>
         </is>
       </c>
@@ -578,65 +595,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'arbre est originaire du nord de la Chine et de la Corée.
+Il a été introduit en Europe, en 1834, via le Japon. Il y en a près de 900 plantés dans Paris (voir carte).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Paulownia_tomentosa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paulownia_tomentosa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Paulownia préfère un sol humifère, drainant, à pH neutre (6) mais il tolère une large variété de types de sol. Pour cette raison, il fonctionne écologiquement comme une plante pionnière. Il pousse bien tant qu'il est en plein soleil mais ne survit pas si des arbres plus grands viennent à le mettre à l'ombre.
 Il peut en revanche survivre aux feux de forêt car ses racines se régénèrent vite et sa croissance est rapide.
 L'arbre est capable de se développer à partir de petits interstices dans des murs ou des dallages.
 Dans les zones à hiver très rigoureux, on peut rabattre l'arbre à la fin de l'hiver afin qu'il reparte de souche au printemps. Dans ce cas, il poussera de 3 à 4 m dans l'année et formera des feuilles plus grandes (jusqu'à 60 cm). En revanche, il ne fleurira pas car les fleurs apparaissent uniquement sur du bois de deux ans.
-L'arbre se reproduit facilement par semis et donne ses premières fleurs vers l'âge de huit ans. Les graines ayant besoin de lumière et d'humidité pour bien germer, on recommande de les faire tremper dans un récipient en verre exposé à la lumière pendant une quinzaine de jours. On pourra alors récupérer de petites plantules à mettre en pots individuels sous serre pour que la plantule puisse continuer à se développer correctement[4].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Paulownia_tomentosa</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Paulownia_tomentosa</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Utilisation</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paulownia tomentosa est un arbre prisé pour son bois léger, comparable au balsa, avec lequel sont confectionnées les grandes boites de thé ensuite exportées, ainsi que les semelles des geta. Il supporte bien la taille et la pollution. Son large système racinaire empêche l'érosion des sols.
-Arbre d'agrément
-En Chine, le Paulownia se rencontre tant isolé qu'en bosquet ou agencé en alignement. Apprecié pour son ombre et son apport en azote, on le remarque dans les jardins d'agrément, au bord des terrains maraîchers et dans les friches qu'il colonise facilement. Il est aussi beaucoup planté en ornement dans le monde occidental depuis le XIXe siècle
-Pharmacologie
-Les feuilles, fleurs et fruits du Paulownia contiennent un Verbascoside (synonyme: Acétoside), grossièrement décrit, un composant du sucre organique, agrémenté d’un résidu d'acide caféique que l’on retrouve dans la verveine[Laquelle ?] ou les griffes de sorcière[réf. souhaitée]. C’est ce qui confère à l'huile qu'on en tire comme aux baumes qui peuvent être composés, des propriétés anti-oxydantes, anti-inflammatoires et anti-microbiennes[réf. nécessaire].
-En médecine traditionnelle chinoise (MTC) Paulownia tomentosa, appelé 毛泡桐 Mao Pao Tong fait l'objet de recherches, car des vertus lui sont reconnues. Ainsi ses sesquiterpénoïdes sont utilisés dans le freinage de la prolifération des cellules cancéreuses, ses flavonoïdes sont appliqués dans le traitement de certaines formes de carcinomes, ses glycocides phénoliques dans celui de certaines formes de leucémies (K562)[5].
-Parfumerie
-Les fleurs de Paulwonia tomentosa entrent dans la composition de parfums[6],[7].
-Agriculture
-En agroforesterie, ses feuilles, riches en azote, fournissent un bon fourrage, pour les ruminants et les porcins notamment.
-Industrie du bois
-P. tomentosa, qui résiste au froid, est cultivé dans les climats tempérés du monde entier, outre le Nord de la Chine.
-Pour la filière bois d'Asie, en revanche, deux de ses cousins sont plus recherchés que lui pour des raisons climatologiques : les espèces aimant la chaleur, Paulownia elongata et Paulownia fortunei. Elles sont abondamment cultivées en Chine puisqu'elles représentent une surface de près de 1,3 million d'hectares[8],[9],[10],[11],[12],[13].
-Leur bois est utilisé pour fabriquer des pergolas, des meubles, des instruments de musique, des cerfs-volants, des objets d'art ou encore une partie des planches de surf dites "alaia" car outre sa légèreté, il absorbe très peu l'eau.
-Caractères techniques :
-Le but de cette étude[14] était de déterminer certaines propriétés physiques et mécaniques du bois de Paulownia tomentosa y compris la densité de séchage à l'air, la densité de séchage au four, la densité de base, le gonflement... 
-Selon cette étude, le bois de Paulownia tomentosa peut être largement utilisé à diverses fins telles que la construction de maisons, la fabrication de meubles, la pâte et le papier et l'artisanat[14].
-Plante mellifère
-Le Paulownia est une plante mellifère qui donne un miel ressemblant au miel d'acacia[15].
+L'arbre se reproduit facilement par semis et donne ses premières fleurs vers l'âge de huit ans. Les graines ayant besoin de lumière et d'humidité pour bien germer, on recommande de les faire tremper dans un récipient en verre exposé à la lumière pendant une quinzaine de jours. On pourra alors récupérer de petites plantules à mettre en pots individuels sous serre pour que la plantule puisse continuer à se développer correctement.
 </t>
         </is>
       </c>
@@ -662,21 +666,357 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paulownia tomentosa est un arbre prisé pour son bois léger, comparable au balsa, avec lequel sont confectionnées les grandes boites de thé ensuite exportées, ainsi que les semelles des geta. Il supporte bien la taille et la pollution. Son large système racinaire empêche l'érosion des sols.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Paulownia_tomentosa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paulownia_tomentosa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Arbre d'agrément</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Chine, le Paulownia se rencontre tant isolé qu'en bosquet ou agencé en alignement. Apprecié pour son ombre et son apport en azote, on le remarque dans les jardins d'agrément, au bord des terrains maraîchers et dans les friches qu'il colonise facilement. Il est aussi beaucoup planté en ornement dans le monde occidental depuis le XIXe siècle
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Paulownia_tomentosa</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paulownia_tomentosa</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pharmacologie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles, fleurs et fruits du Paulownia contiennent un Verbascoside (synonyme: Acétoside), grossièrement décrit, un composant du sucre organique, agrémenté d’un résidu d'acide caféique que l’on retrouve dans la verveine[Laquelle ?] ou les griffes de sorcière[réf. souhaitée]. C’est ce qui confère à l'huile qu'on en tire comme aux baumes qui peuvent être composés, des propriétés anti-oxydantes, anti-inflammatoires et anti-microbiennes[réf. nécessaire].
+En médecine traditionnelle chinoise (MTC) Paulownia tomentosa, appelé 毛泡桐 Mao Pao Tong fait l'objet de recherches, car des vertus lui sont reconnues. Ainsi ses sesquiterpénoïdes sont utilisés dans le freinage de la prolifération des cellules cancéreuses, ses flavonoïdes sont appliqués dans le traitement de certaines formes de carcinomes, ses glycocides phénoliques dans celui de certaines formes de leucémies (K562).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Paulownia_tomentosa</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paulownia_tomentosa</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Parfumerie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs de Paulwonia tomentosa entrent dans la composition de parfums,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Paulownia_tomentosa</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paulownia_tomentosa</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En agroforesterie, ses feuilles, riches en azote, fournissent un bon fourrage, pour les ruminants et les porcins notamment.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Paulownia_tomentosa</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paulownia_tomentosa</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Industrie du bois</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P. tomentosa, qui résiste au froid, est cultivé dans les climats tempérés du monde entier, outre le Nord de la Chine.
+Pour la filière bois d'Asie, en revanche, deux de ses cousins sont plus recherchés que lui pour des raisons climatologiques : les espèces aimant la chaleur, Paulownia elongata et Paulownia fortunei. Elles sont abondamment cultivées en Chine puisqu'elles représentent une surface de près de 1,3 million d'hectares.
+Leur bois est utilisé pour fabriquer des pergolas, des meubles, des instruments de musique, des cerfs-volants, des objets d'art ou encore une partie des planches de surf dites "alaia" car outre sa légèreté, il absorbe très peu l'eau.
+Caractères techniques :
+Le but de cette étude était de déterminer certaines propriétés physiques et mécaniques du bois de Paulownia tomentosa y compris la densité de séchage à l'air, la densité de séchage au four, la densité de base, le gonflement... 
+Selon cette étude, le bois de Paulownia tomentosa peut être largement utilisé à diverses fins telles que la construction de maisons, la fabrication de meubles, la pâte et le papier et l'artisanat.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Paulownia_tomentosa</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paulownia_tomentosa</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Plante mellifère</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Paulownia est une plante mellifère qui donne un miel ressemblant au miel d'acacia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Paulownia_tomentosa</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paulownia_tomentosa</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Aspects culturels</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chine
-Dans la tradition chinoise, le Paulownia est symboliquement associé au phénix et à l’impératrice[16].
-Attribué à Zhuangzi, un penseur chinois ayant vécu à Meng, en Chine du nord, de 370 à 301 av. J.-C., le recueil de textes qui porte son nom, le Zhuangzi, précise que le phénix ne peut se poser que sur les Paulownias[17]. Motif utilisé dans les vêtements destinés à la maison impériale chinoise dès le début du XIe siècle, le Paulownia et le phénix sont associés aux symboles des quatre orients[18].
-Depuis la dynastie Youan (1271-1368), le phénix symbolise l'impératrice, tandis que l'empereur est représenté par le dragon[19].
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Chine</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la tradition chinoise, le Paulownia est symboliquement associé au phénix et à l’impératrice.
+Attribué à Zhuangzi, un penseur chinois ayant vécu à Meng, en Chine du nord, de 370 à 301 av. J.-C., le recueil de textes qui porte son nom, le Zhuangzi, précise que le phénix ne peut se poser que sur les Paulownias. Motif utilisé dans les vêtements destinés à la maison impériale chinoise dès le début du XIe siècle, le Paulownia et le phénix sont associés aux symboles des quatre orients.
+Depuis la dynastie Youan (1271-1368), le phénix symbolise l'impératrice, tandis que l'empereur est représenté par le dragon.
 Dans certaines régions de Chine, la tradition voulait qu'on plante un Paulownia à la naissance d'une fille. L'arbre grandissait avec elle et pour son mariage, l'arbre était abattu et son bois servait de dot.
-Japon
-Au Japon, depuis l'époque de l'empereur Go-Daigo qui a régné de 1318 à 1339, les feuilles de Paulownia constituent un des emblèmes destiné à honorer des personnages méritants[20]. Le shogun Ashikaga Takauji a reçu de Go-Daigo cette distinction, dont la famille Ashikaga s’est emparée jusqu’au XVIe siècle. À partir de cette époque, l’empereur l'a attribuée au daimyo, Toyotomi Hideyoshi (1536-1598)[21].
-Les feuilles de Paulownia symbolisent le Cabinet du premier ministre japonais "Go-Shichi no Kiri"[22]. L’ordre du Soleil levant, fondé par l'empereur Meiji en 1875, décoré de feuilles de Paulownia, est une importante distinction du gouvernement japonais.
-Europe
-Le Paulownia doit son nom générique à un rapprochement fait en 1835 par Philipp Franz von Siebold entre la noblesse et la beauté de cet arbre et celles de la princesse des Pays-Bas, Anna Paulowna, fille du tsar Paul Ier de Russie, mais surtout « fort en honneur au Japon » à l'époque d'après ce botaniste[23]. C'est pourquoi l'arbre est parfois appelé Arbre d'Anna Paulowna.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Paulownia_tomentosa</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paulownia_tomentosa</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Aspects culturels</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Japon</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Japon, depuis l'époque de l'empereur Go-Daigo qui a régné de 1318 à 1339, les feuilles de Paulownia constituent un des emblèmes destiné à honorer des personnages méritants. Le shogun Ashikaga Takauji a reçu de Go-Daigo cette distinction, dont la famille Ashikaga s’est emparée jusqu’au XVIe siècle. À partir de cette époque, l’empereur l'a attribuée au daimyo, Toyotomi Hideyoshi (1536-1598).
+Les feuilles de Paulownia symbolisent le Cabinet du premier ministre japonais "Go-Shichi no Kiri". L’ordre du Soleil levant, fondé par l'empereur Meiji en 1875, décoré de feuilles de Paulownia, est une importante distinction du gouvernement japonais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Paulownia_tomentosa</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Paulownia_tomentosa</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Aspects culturels</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Paulownia doit son nom générique à un rapprochement fait en 1835 par Philipp Franz von Siebold entre la noblesse et la beauté de cet arbre et celles de la princesse des Pays-Bas, Anna Paulowna, fille du tsar Paul Ier de Russie, mais surtout « fort en honneur au Japon » à l'époque d'après ce botaniste. C'est pourquoi l'arbre est parfois appelé Arbre d'Anna Paulowna.
 </t>
         </is>
       </c>
